--- a/microservices/food_service/data/food.xlsx
+++ b/microservices/food_service/data/food.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\FOODY_cus\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\FOODY_PROJECT\microservices\food_service\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>food</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>R.jpg</t>
+  </si>
+  <si>
+    <t>bánh cá phô mai sô cô la(trắng)</t>
   </si>
 </sst>
 </file>
@@ -886,11 +889,12 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -984,7 +988,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>10000</v>
